--- a/GATEWAY/A1#111#SOFTWAREENGINESRLXX/SOFTWAREENGINE/SILENO/1.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111#SOFTWAREENGINESRLXX/SOFTWAREENGINE/SILENO/1.0/report-checklist.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sviluppo/Desktop/Accreditamento FSE/TestCase/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sviluppo/Desktop/Accreditamento FSE/TestCase/LDO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DE6D0A9-95E4-E244-9BCF-993C9789691A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{889C7B51-3F45-3A49-B3EF-0A94D2D16196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1440" windowWidth="27320" windowHeight="18880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="760" windowWidth="27320" windowHeight="18880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="208">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -1008,6 +1008,9 @@
   </si>
   <si>
     <t>Attenzione: codifica non appartenente al dizionario associato.</t>
+  </si>
+  <si>
+    <t>Impossibile invocare il servizio</t>
   </si>
 </sst>
 </file>
@@ -1356,7 +1359,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1482,6 +1485,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3945,10 +3951,10 @@
   <dimension ref="A1:T646"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4453,11 +4459,15 @@
       <c r="M15" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="N15" s="35" t="s">
+      <c r="N15" s="50" t="s">
+        <v>207</v>
+      </c>
+      <c r="O15" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="P15" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="O15" s="25"/>
-      <c r="P15" s="25"/>
       <c r="Q15" s="25"/>
       <c r="R15" s="26"/>
       <c r="S15" s="27"/>
@@ -4737,9 +4747,7 @@
       <c r="E22" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="F22" s="37">
-        <v>45455</v>
-      </c>
+      <c r="F22" s="37"/>
       <c r="G22" s="24"/>
       <c r="H22" s="24"/>
       <c r="I22" s="24"/>

--- a/GATEWAY/A1#111#SOFTWAREENGINESRLXX/SOFTWAREENGINE/SILENO/1.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111#SOFTWAREENGINESRLXX/SOFTWAREENGINE/SILENO/1.0/report-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sviluppo/Desktop/Accreditamento FSE/TestCase/LDO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{889C7B51-3F45-3A49-B3EF-0A94D2D16196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5CDBD13-5E1D-DD49-AF9B-FB249C3F2FF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="760" windowWidth="27320" windowHeight="18880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -884,15 +884,6 @@
     <t>2.16.840.1.113883.2.9.2.150.4.4.33b0f7d9912098311fd5dc38754011f4a991eb5238d55ffa65934d9025030a3b.2afb457385^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>2024-06-12T08:20:18Z</t>
-  </si>
-  <si>
-    <t>09342231f9654a86</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.150.4.4.33b0f7d9912098311fd5dc38754011f4a991eb5238d55ffa65934d9025030a3b.dbf33a3b40^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>2024-06-12T08:21:58Z</t>
   </si>
   <si>
@@ -1011,6 +1002,15 @@
   </si>
   <si>
     <t>Impossibile invocare il servizio</t>
+  </si>
+  <si>
+    <t>2024-06-13T14:47:15Z</t>
+  </si>
+  <si>
+    <t>f364460441b28e42</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.150.4.4.33b0f7d9912098311fd5dc38754011f4a991eb5238d55ffa65934d9025030a3b.cee7e683cd^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -1464,6 +1464,9 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1485,9 +1488,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3951,10 +3951,10 @@
   <dimension ref="A1:T646"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="G22" sqref="G22"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3992,14 +3992,14 @@
       <c r="T1" s="15"/>
     </row>
     <row r="2" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="42" t="s">
+      <c r="B2" s="42"/>
+      <c r="C2" s="43" t="s">
         <v>161</v>
       </c>
-      <c r="D2" s="41"/>
+      <c r="D2" s="42"/>
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
@@ -4017,14 +4017,14 @@
       <c r="T2" s="15"/>
     </row>
     <row r="3" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="49" t="s">
+      <c r="B3" s="45"/>
+      <c r="C3" s="50" t="s">
         <v>149</v>
       </c>
-      <c r="D3" s="41"/>
+      <c r="D3" s="42"/>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
@@ -4042,12 +4042,12 @@
       <c r="T3" s="15"/>
     </row>
     <row r="4" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="45"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="49" t="s">
+      <c r="A4" s="46"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="50" t="s">
         <v>150</v>
       </c>
-      <c r="D4" s="41"/>
+      <c r="D4" s="42"/>
       <c r="E4" s="4"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
@@ -4066,12 +4066,12 @@
       <c r="T4" s="15"/>
     </row>
     <row r="5" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="47"/>
-      <c r="B5" s="48"/>
-      <c r="C5" s="49" t="s">
+      <c r="A5" s="48"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="50" t="s">
         <v>151</v>
       </c>
-      <c r="D5" s="41"/>
+      <c r="D5" s="42"/>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
@@ -4089,8 +4089,8 @@
       <c r="T5" s="15"/>
     </row>
     <row r="6" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="38"/>
-      <c r="B6" s="39"/>
+      <c r="A6" s="39"/>
+      <c r="B6" s="40"/>
       <c r="C6" s="16"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
@@ -4268,16 +4268,16 @@
         <v>51</v>
       </c>
       <c r="F11" s="37">
-        <v>45455</v>
+        <v>45456</v>
       </c>
       <c r="G11" s="24" t="s">
-        <v>165</v>
+        <v>205</v>
       </c>
       <c r="H11" s="24" t="s">
-        <v>166</v>
+        <v>206</v>
       </c>
       <c r="I11" s="24" t="s">
-        <v>167</v>
+        <v>207</v>
       </c>
       <c r="J11" s="25" t="s">
         <v>68</v>
@@ -4315,13 +4315,13 @@
         <v>45455</v>
       </c>
       <c r="G12" s="24" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H12" s="24" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="I12" s="24" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J12" s="25" t="s">
         <v>68</v>
@@ -4359,13 +4359,13 @@
         <v>45455</v>
       </c>
       <c r="G13" s="24" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H13" s="24" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I13" s="24" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="J13" s="25" t="s">
         <v>68</v>
@@ -4441,13 +4441,13 @@
         <v>45455</v>
       </c>
       <c r="G15" s="24" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="H15" s="24" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="I15" s="24" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="J15" s="25" t="s">
         <v>68</v>
@@ -4459,14 +4459,14 @@
       <c r="M15" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="N15" s="50" t="s">
-        <v>207</v>
+      <c r="N15" s="38" t="s">
+        <v>204</v>
       </c>
       <c r="O15" s="25" t="s">
         <v>68</v>
       </c>
       <c r="P15" s="35" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="Q15" s="25"/>
       <c r="R15" s="26"/>
@@ -4659,13 +4659,13 @@
         <v>45455</v>
       </c>
       <c r="G20" s="24" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="H20" s="24" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="I20" s="24" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="J20" s="25" t="s">
         <v>68</v>
@@ -4678,13 +4678,13 @@
         <v>68</v>
       </c>
       <c r="N20" s="25" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="O20" s="25" t="s">
         <v>68</v>
       </c>
       <c r="P20" s="25" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="Q20" s="25"/>
       <c r="R20" s="26"/>
@@ -4789,13 +4789,13 @@
         <v>45455</v>
       </c>
       <c r="G23" s="24" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H23" s="24" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="I23" s="24" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="J23" s="25" t="s">
         <v>68</v>
@@ -4808,13 +4808,13 @@
         <v>68</v>
       </c>
       <c r="N23" s="25" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="O23" s="25" t="s">
         <v>68</v>
       </c>
       <c r="P23" s="25" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="Q23" s="25"/>
       <c r="R23" s="26"/>
@@ -4843,13 +4843,13 @@
         <v>45455</v>
       </c>
       <c r="G24" s="24" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H24" s="24" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I24" s="24" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="J24" s="25" t="s">
         <v>68</v>
@@ -4862,13 +4862,13 @@
         <v>68</v>
       </c>
       <c r="N24" s="25" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="O24" s="25" t="s">
         <v>68</v>
       </c>
       <c r="P24" s="25" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="Q24" s="25"/>
       <c r="R24" s="26"/>
@@ -4897,13 +4897,13 @@
         <v>45455</v>
       </c>
       <c r="G25" s="24" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H25" s="24" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="I25" s="24" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J25" s="25" t="s">
         <v>68</v>
@@ -4916,13 +4916,13 @@
         <v>68</v>
       </c>
       <c r="N25" s="25" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="O25" s="25" t="s">
         <v>68</v>
       </c>
       <c r="P25" s="25" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="Q25" s="25"/>
       <c r="R25" s="26"/>
@@ -4951,13 +4951,13 @@
         <v>45455</v>
       </c>
       <c r="G26" s="24" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="H26" s="24" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I26" s="24" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="J26" s="25" t="s">
         <v>68</v>
@@ -4970,13 +4970,13 @@
         <v>68</v>
       </c>
       <c r="N26" s="25" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="O26" s="25" t="s">
         <v>68</v>
       </c>
       <c r="P26" s="25" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="Q26" s="25"/>
       <c r="R26" s="26"/>
@@ -5005,13 +5005,13 @@
         <v>45455</v>
       </c>
       <c r="G27" s="24" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="H27" s="24" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="I27" s="24" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="J27" s="25" t="s">
         <v>68</v>
@@ -5024,13 +5024,13 @@
         <v>68</v>
       </c>
       <c r="N27" s="25" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O27" s="25" t="s">
         <v>68</v>
       </c>
       <c r="P27" s="25" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="Q27" s="25"/>
       <c r="R27" s="26"/>
@@ -5097,13 +5097,13 @@
         <v>45455</v>
       </c>
       <c r="G29" s="24" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H29" s="24" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I29" s="24" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="J29" s="25" t="s">
         <v>68</v>
